--- a/docs/variables vs preguntas.xlsx
+++ b/docs/variables vs preguntas.xlsx
@@ -114,13 +114,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor rgb="FFDA6952"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -152,7 +152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -163,13 +163,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -181,6 +187,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFDA6952"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -489,9 +500,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection sqref="A1:I7"/>
     </sheetView>
   </sheetViews>
@@ -510,109 +521,164 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6"/>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="5"/>
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
     </row>
     <row r="5" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="3"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="7"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
